--- a/File Legend.xlsx
+++ b/File Legend.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kip Madden\Desktop\dataScience\MortgageML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB8BC1-26BA-4C17-9665-627D1CA433A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605864C-2F8B-4F69-AFC8-7DD55E9EC6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
+    <workbookView xWindow="38505" yWindow="0" windowWidth="38175" windowHeight="20775" activeTab="3" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Aquisition Prep" sheetId="2" r:id="rId1"/>
     <sheet name="Perfomance Prep" sheetId="3" r:id="rId2"/>
-    <sheet name="Joins" sheetId="4" r:id="rId3"/>
-    <sheet name="ML" sheetId="1" r:id="rId4"/>
+    <sheet name="fMac Prep" sheetId="6" r:id="rId3"/>
+    <sheet name="Joins" sheetId="4" r:id="rId4"/>
+    <sheet name="Slice" sheetId="5" r:id="rId5"/>
+    <sheet name="ML" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
     <t xml:space="preserve">FM_Aquisition_Processing.ipynb </t>
   </si>
   <si>
@@ -370,9 +369,6 @@
     <t>FMAcqProcessed2.csv,  FMPerfProcessed.csv,  FMAC30Agg.csv,   FRED-DGS10.csv</t>
   </si>
   <si>
-    <t>(loanIdentifier &gt; id)[FMAcqProcessed.csv],  month_year &gt; origDate [FMAC30Agg.csv],  (Date&gt;origDate,  Value&gt;fredRate)[FRED-DGS10.csv]</t>
-  </si>
-  <si>
     <t>Unnamed: 0, firstPmtDate, rptPeriod, currIntRate, currUPB, loanAge, monMatur, zeroBalDate, lastPdInstDate, forecloDate, dispDate, forecloCost, propRepCost, recovCosts, miscCost, holdTaxCost, saleProceed, credEnhProceed, repurchProceed, otherForecloProceed, nonIntUPB, prinForgivBal, repurchMakeWholeProceedFlg, forecloPrinWriteOffAmnt, servActivIndicator</t>
   </si>
   <si>
@@ -394,14 +390,134 @@
     <t>FM_Aquisition_Performance_Join_All.ipynb</t>
   </si>
   <si>
-    <t xml:space="preserve">FM_Acq_Perf_FMAC2_ALL_ML.csv, FannieAcq2000-19FMac30-ALL-sample2pt5.csv, </t>
+    <t xml:space="preserve">FM_Acq_Perf_FMAC2_ALL_ML.csv, FM_Acq_Perf_FMAC_EPOCH1_MLAll.csv,  FM_Acq_Perf_FMAC_EPOCH2_MLAll.csv,  FM_Acq_Perf_FMAC_EPOCH3_MLAll.csv, FannieAcq2000-19FMac30-ALL-sample2pt5.csv, </t>
+  </si>
+  <si>
+    <t>FMAcqProcessed2.csv,  FMPerfProcessedALL.csv,  FMAC30Agg.csv,   FRED-DGS10.csv</t>
+  </si>
+  <si>
+    <t>FM_Aquisition_Performance_Join2-loanAge.ipynb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATED with NEW data from Fannie Mae - Otherwise same as "Join2" file.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Join "Resolved" loans only - those loans that either were paid off or defaulted. Refinance AND Primary mortgages, ALL terms (not just 360 months)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FM_Acq_Perf_FMAC2_loanAge_ML.csv,  FM_Acq_Perf_FMAC_EPOCH1_ML2_loanAge.csv,  FM_Acq_Perf_FMAC_EPOCH2_ML2_loanAge.csv,  FM_Acq_Perf_FMAC_EPOCH3_ML2_loanAge.csv  </t>
+  </si>
+  <si>
+    <t>(loanIdentifier &gt; id)[FMAcqProcessed2.csv],  month_year &gt; origDate [FMAC30Agg.csv],  (Date&gt;origDate,  Value&gt;fredRate)[FRED-DGS10.csv]</t>
+  </si>
+  <si>
+    <t>FM_Aquisition2_Performance_Join-loanAge-NonML.ipynb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DUMMY DATA NOT GENERATED ON CATEGORICAL COLUMNS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. UPDATED with NEW data from Fannie Mae - Otherwise same as "Join2" file.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Join "Resolved" loans only - those loans that either were paid off or defaulted. Refinance AND Primary mortgages, ALL terms (not just 360 months)</t>
+    </r>
+  </si>
+  <si>
+    <t>FM_Acq2_Perf_FMAC2_loanAge.csv,  FM_Acq2_Perf_FMAC_EPOCH1_loanAge.csv,  FM_Acq2_Perf_FMAC_EPOCH2_loanAge.csv,  FM_Acq2_Perf_FMAC_EPOCH3_loanAge.csv, FMAcq2000-19FMac30-sample2pt5_loanAge.csv</t>
+  </si>
+  <si>
+    <t>Slice full dataset files into samples or EPOCHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM_Aquisition_Performance_Slice.ipynb </t>
+  </si>
+  <si>
+    <t>FM_Acq_Perf_FMAC2_ALL_ML.csv</t>
+  </si>
+  <si>
+    <t>FM_Acq_Perf_FMAC_ALL_EPOCH1_ML.csv, FM_Acq_Perf_FMAC_ALL_EPOCH2_ML.csv, FM_Acq_Perf_FMAC_ALL_EPOCH3_ML.csv, FannieAcq2000-19FMac30-ALL-sample2pt5.csv</t>
+  </si>
+  <si>
+    <t>FM_Aquisition2_Performance_makesamples.ipynb</t>
+  </si>
+  <si>
+    <t>FM_Acq2_Perf_FMAC_EPOCH1_loanAge.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM_Acq2_Perf_FMAC_EPOCH1_loanAge_5pct.csv, FM_Acq2_Perf_FMAC_EPOCH1_loanAge_25pct.csv, </t>
+  </si>
+  <si>
+    <t>Slice input dataset files into samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMac_Processing.ipynb </t>
+  </si>
+  <si>
+    <t>FMAC-30US.csv</t>
+  </si>
+  <si>
+    <t>fmacRateMax, fmacRateMin, fmacRateAvg, fmacRateVolatility</t>
+  </si>
+  <si>
+    <t>FMAC30Agg.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Date&gt;origDate,  Value&gt;fmacRate)[FMAC-30US.csv]</t>
+  </si>
+  <si>
+    <t>Convert weekly Freddie Mac historical data into monthly data. Determine the Max, Min, Avg rate during the aggregated month. Also calculate the "volatility" of the rates in the aggregated month</t>
+  </si>
+  <si>
+    <t>FM_Aquisition_Processing_Refi.ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,16 +555,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -456,11 +586,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,6 +622,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,159 +950,163 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.4609375" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" customWidth="1"/>
-    <col min="7" max="7" width="13.4609375" customWidth="1"/>
-    <col min="8" max="8" width="17.15234375" customWidth="1"/>
-    <col min="9" max="9" width="23.23046875" customWidth="1"/>
-    <col min="10" max="10" width="13.61328125" customWidth="1"/>
-    <col min="11" max="11" width="35.921875" customWidth="1"/>
-    <col min="12" max="12" width="29.921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.61328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>10535111</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="4">
         <v>25993874</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,229 +1118,183 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.921875" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" customWidth="1"/>
-    <col min="4" max="4" width="28.921875" customWidth="1"/>
-    <col min="5" max="5" width="20.4609375" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" customWidth="1"/>
-    <col min="7" max="7" width="29.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.84375" customWidth="1"/>
-    <col min="9" max="9" width="32.61328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="37.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="4">
         <v>4054042</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="4">
         <v>5485661</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7E635-37D2-4027-BF25-38CCEFE35CD5}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4C345C-7E2C-410E-91CB-F1CAB5E008B1}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.3828125" customWidth="1"/>
-    <col min="2" max="2" width="37.07421875" customWidth="1"/>
-    <col min="3" max="3" width="19.15234375" customWidth="1"/>
-    <col min="4" max="4" width="33.765625" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="37.84375" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="9" width="33.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="37.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4">
-        <v>4054042</v>
+        <v>2565</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="116.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="145.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1189,29 +1303,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB3EFC0-75C0-4AB4-8335-332E3956D060}">
-  <dimension ref="B1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7E635-37D2-4027-BF25-38CCEFE35CD5}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="45.61328125" customWidth="1"/>
-    <col min="3" max="3" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="46" style="9" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1300554</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2663264</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2663264</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2663264</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="10">
+        <v>25993873</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D288D-6F8A-40C1-A483-73570E9BB7C3}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB3EFC0-75C0-4AB4-8335-332E3956D060}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/File Legend.xlsx
+++ b/File Legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kip Madden\Desktop\dataScience\MortgageML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605864C-2F8B-4F69-AFC8-7DD55E9EC6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370E0A6-0F0E-4453-9BBD-D0DD40AABD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38505" yWindow="0" windowWidth="38175" windowHeight="20775" activeTab="3" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="38175" windowHeight="20775" activeTab="3" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Aquisition Prep" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>File Name</t>
   </si>
@@ -511,6 +511,27 @@
   </si>
   <si>
     <t>FM_Aquisition_Processing_Refi.ipynb</t>
+  </si>
+  <si>
+    <t>FMAcqProcessedRefi.csv</t>
+  </si>
+  <si>
+    <t>Fill Null values with "0"</t>
+  </si>
+  <si>
+    <t>mortInsTye, pMIperct</t>
+  </si>
+  <si>
+    <t>mortInsTye, pMIperct, origCLTV</t>
+  </si>
+  <si>
+    <t>ML column prep</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>origChannel:R,B,C &gt; 1,2,3  loanPurp: C,R,U &gt; 1,2,3 sellerName: text &gt; numbers propState: text &gt; numbers</t>
   </si>
 </sst>
 </file>
@@ -605,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,166 +971,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6C953F-51AD-4961-8BBC-583845C83326}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="35.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>10535111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="O2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>25993874</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File Legend.xlsx
+++ b/File Legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kip Madden\Desktop\dataScience\MortgageML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370E0A6-0F0E-4453-9BBD-D0DD40AABD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E5A5A-BD03-41AB-B5EE-7DFB3BF2BBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="38175" windowHeight="20775" activeTab="3" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
+    <workbookView xWindow="38505" yWindow="0" windowWidth="38175" windowHeight="20775" activeTab="1" xr2:uid="{5CCB278A-5778-4807-92F6-A80EAE9D3D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Aquisition Prep" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>File Name</t>
   </si>
@@ -532,6 +532,21 @@
   </si>
   <si>
     <t>origChannel:R,B,C &gt; 1,2,3  loanPurp: C,R,U &gt; 1,2,3 sellerName: text &gt; numbers propState: text &gt; numbers</t>
+  </si>
+  <si>
+    <t>FM_Aquisition_Processing_PurchRefi.ipynb</t>
+  </si>
+  <si>
+    <t>FMAcqProcessedPurchRefi.csv</t>
+  </si>
+  <si>
+    <t>Refianced Mortgages ONLY</t>
+  </si>
+  <si>
+    <t>Purchase AND Refinanced Mortgages</t>
+  </si>
+  <si>
+    <t>Replaced original files</t>
   </si>
 </sst>
 </file>
@@ -585,7 +600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,6 +676,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,221 +1001,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6C953F-51AD-4961-8BBC-583845C83326}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="9"/>
+    <col min="3" max="3" width="39.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="35.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8">
-        <v>10535111</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="8">
+        <v>18334422</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>92</v>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8">
+        <v>25993874</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:19" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F8" s="13">
         <v>25993874</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="7" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="9" spans="1:19" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10535111</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="J9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="O9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBB29A9-91DC-4036-A62D-59A323665529}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7E635-37D2-4027-BF25-38CCEFE35CD5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
